--- a/Calculate Client Security Hash_Performer/Data/Config.xlsx
+++ b/Calculate Client Security Hash_Performer/Data/Config.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/nicola_bagnera_it_ey_com/Documents/Documents/UiPath/Calculate Client Security Hash/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/edoardo_sansonetti_it_ey_com/Documents/Documents/UiPathAcademy/Calculate Client Security Hash_Performer/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46FAC55-FA97-4B2D-AED2-DD8B41CAB9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E46FAC55-FA97-4B2D-AED2-DD8B41CAB9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFF8728E-4688-4D1F-83FD-BE094F63F775}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3375" yWindow="-14865" windowWidth="21615" windowHeight="12450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcCompleted="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>Web path ACME</t>
+  </si>
+  <si>
+    <t>SHA1_WebApplicationPath</t>
+  </si>
+  <si>
+    <t>Web path SHA1</t>
   </si>
 </sst>
 </file>
@@ -553,12 +559,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -606,7 +612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -618,7 +624,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="29">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1647,12 +1653,12 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1689,7 +1695,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1700,7 +1706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1814,7 +1820,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2807,15 +2813,15 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.90625" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" customWidth="1"/>
+    <col min="3" max="3" width="60.36328125" customWidth="1"/>
+    <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2868,7 +2874,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
